--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.31050000000003</v>
+        <v>-21.41060000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.8875</v>
+        <v>-14.14190000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.7781</v>
+        <v>-11.95440000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.78890000000001</v>
+        <v>-13.53450000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.83750000000001</v>
+        <v>-20.83070000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.2795</v>
+        <v>-11.3248</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.33930000000003</v>
+        <v>-21.49450000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.40420000000003</v>
+        <v>-22.39150000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
